--- a/Timer_Example/PWM_Calculations.xlsx
+++ b/Timer_Example/PWM_Calculations.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imazze/eclipse/MC-Herpel-Vorlesung/Timer_Example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B1C8E8-80A7-0844-8FCA-916B677AE8BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E342454-AE2F-9B43-94DC-6586C292345E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="1500" windowWidth="28240" windowHeight="17560" xr2:uid="{3DB4D2D3-71DB-DD49-896F-704CBDC85B52}"/>
+    <workbookView xWindow="2680" yWindow="1500" windowWidth="28240" windowHeight="17560" activeTab="1" xr2:uid="{3DB4D2D3-71DB-DD49-896F-704CBDC85B52}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId1"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,12 +26,471 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="155">
   <si>
     <t>x</t>
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">17, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">18, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">19, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">21, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">24, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">25, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">26, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">27, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">28, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">29, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">30, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">31, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">32, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">33, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">34, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">35, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">36, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">37, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">38, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">39, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">40, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">41, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">42, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">43, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">44, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">45, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">46, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">47, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">48, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">49, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">50, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">51, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">52, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">53, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">54, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">55, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">56, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">57, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">58, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">59, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">60, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">61, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">62, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">63, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">64, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">65, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">66, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">68, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">69, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">70, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">71, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">72, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">74, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">75, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">76, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">78, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">79, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">80, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">82, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">83, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">84, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">86, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">87, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">89, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">90, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">92, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">93, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">95, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">96, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">98, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">99, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">101, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">103, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">104, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">106, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">108, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">109, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">111, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">113, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">115, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">117, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">118, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">120, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">122, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">124, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">126, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">128, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">130, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">132, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">134, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">136, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">138, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">140, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">143, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">145, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">147, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">149, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">151, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">154, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">156, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">158, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">161, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">163, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">166, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">168, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">171, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">173, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">176, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">178, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">181, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">184, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">186, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">189, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">192, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">195, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">197, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">200, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">203, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">206, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">209, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">212, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">215, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">218, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">221, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">225, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">228, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">231, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">234, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">238, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">241, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">245, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">248, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">251, </t>
   </si>
 </sst>
 </file>
@@ -987,766 +1447,766 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0118344310951549E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0657662848677667E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.1896901318506696E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6411839238819503E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5760789424218937E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.7265462955719197E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.0955132490352772E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.6859425057681998E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.5008326086454256E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.10543218347520798</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.12816171170729468</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.15322799601078901</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.18066249656376315</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.21049705274540681</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.24276388743347774</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.27749561134857675</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.314725227445741</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.35448613535385887</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.39681213586341296</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.44173743546306149</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.48929665092557745</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.53952481394366791</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.59245737581620228</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.64813021218537925</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.70657962782537787</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.76784236148303264</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.83195559077108272</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.89895693711455948</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.96888447075086059</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.0417767157840885</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.1176726552942302</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.1966117365017424</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.278633875988143</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.3637794649731942</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.4520893746492762</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.5436049615735499</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.6383680731185344</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.7364210529816899</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.837806746754661</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.942568507552781</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.0507502017054868</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.1623962145082976</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.2775514560369707</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.3962613670245387</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.5185719248018503</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.6445296493023034</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.7741816091314435</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.907575427702116</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3.0447592894358446</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3.1857819460311645</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3.3306927227995735</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3.4795415250698651</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3.6323788446615075</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3.7892557664278401</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3.9502239748697985</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>4.1153357608209191</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>4.2846440282043607</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>4.4582023008627223</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4.6360647294614026</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>4.8182860984662845</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>5.0049218331965131</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>5.1960280069531857</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>5.391661348224714</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>5.5918792479696844</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>5.7967397669780389</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>6.0063016433113692</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>6.2206242998231929</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>6.4397678517600223</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>6.6637931144440659</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>6.8927616110384715</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>7.1267355803959154</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>7.3657779849914409</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>7.6099525189404416</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>7.8593236161026363</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>8.1139564582730141</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>8.3739169834605711</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>8.6392718942558187</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>8.9100886662880079</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>9.1864355567729099</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>9.4683816131522462</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>9.7559966818256125</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>10.049351416975894</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>10.348517289489205</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>10.653566595970254</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>10.964572467854211</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>11.281608880616032</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>11.60475066307829</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>11.934073506818557</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>12.269653975677297</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>12.611569515367442</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>12.959898463186622</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>13.314720057833153</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>13.676114449326873</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>14.044162709035907</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>14.418946839810477</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>14.800549786224892</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>15.189055444928773</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>15.584548675108801</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>15.987115309061958</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>16.39684216288158</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>16.813817047257281</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>17.238128778390074</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>17.669867189023726</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>18.109123139593681</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>18.55598852949473</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>19.010556308468676</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>19.472920488113267</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>19.943176153513569</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>20.421419474997222</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>20.907747720014665</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>21.40225926514584</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>21.90505360823451</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>22.416231380651656</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>22.935894359689218</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>23.464145481085531</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>24.00108885168396</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>24.54682976222588</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>25.101474700279656</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>25.665131363306841</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>26.237908671867167</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>26.819916782963595</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>27.411267103529141</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>28.012072304056655</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>28.622446332373297</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>29.242504427561002</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>29.872363134024674</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>30.512140315709352</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>31.1619551704683</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>31.821928244583095</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>32.49218144743773</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>33.17283806634812</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>33.864022781548613</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>34.565861681337196</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>35.278482277381059</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>36.002013520184121</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>36.736585814718232</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>37.48233103621979</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>38.239382546153351</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>39.00787520834411</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>39.787945405281057</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>40.579731054592244</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>41.383371625694366</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>42.199008156618227</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>43.026783271011915</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>43.86684119532363</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>44.719327776165912</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>45.584390497863289</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>46.462178500185068</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>47.352842596265369</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>48.256535290712137</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>49.173410797907394</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>50.103625060500299</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>51.047335768095351</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>52.004702376137757</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>52.975886124997544</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>53.961050059255257</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>54.960359047190437</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>55.973979800475796</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>57.002080894078631</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>58.044832786371892</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>59.102407839457022</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>60.174980339700745</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>61.262726518487995</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>62.365824573193301</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>63.484454688372708</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>64.618799057178805</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>65.769041903000826</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>66.935369501332431</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>68.117970201869241</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>69.317034450838918</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>70.532754813565745</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>71.765325997272271</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>73.014944874120602</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>74.281810504495795</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>75.566124160533661</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>76.868089349895541</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>78.187911839792889</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>79.525799681263862</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>80.881963233704766</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>82.256615189658845</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>83.649970599865071</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>85.062246898569839</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>86.493663929104002</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>87.944443969727871</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>89.414811759747622</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>90.904994525905039</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>92.415222009043916</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>93.945726491055837</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>95.496742822108359</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>97.068508448158227</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>98.661263438752812</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>100.27525051512237</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>101.91071507856687</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>103.56790523913948</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>105.24707184463044</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>106.94846850985398</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>108.67235164624192</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>110.41898049174658</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>112.18861714105644</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>113.98152657612748</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>115.79797669703431</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>117.63823835314309</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>119.50258537461058</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>121.39129460421208</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>123.30464592950219</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>125.24292231531115</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>127.20640983658052</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>129.19539771154214</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>131.21017833524294</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>133.25104731342003</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>135.31830349672904</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>137.41224901532988</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>139.53318931383302</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>141.68143318661069</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>143.85729281347571</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>146.06108379573305</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>148.29312519260674</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>150.55373955804691</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>152.8432529779198</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>155.16199510758602</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>157.51029920986994</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>159.88850219342459</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>162.29694465149615</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>164.73597090109249</c:v>
+                  <c:v>163</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>167.20592902255888</c:v>
+                  <c:v>166</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>169.70717089956608</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>172.2400522595149</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>174.8049327143606</c:v>
+                  <c:v>173</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>177.40217580186237</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>180.03214902726245</c:v>
+                  <c:v>178</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>182.6952239053978</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>185.39177600325053</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>188.12218498294044</c:v>
+                  <c:v>186</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>190.88683464516481</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>193.68611297308922</c:v>
+                  <c:v>192</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>196.52041217669517</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>199.39012873758841</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>202.29566345427224</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>205.23742148789225</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>208.21581240845504</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>211.23125024152756</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>214.28415351542191</c:v>
+                  <c:v>212</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>217.37494530886832</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>220.50405329918493</c:v>
+                  <c:v>218</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>223.67190981094654</c:v>
+                  <c:v>221</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>226.878951865158</c:v>
+                  <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>230.12562122893937</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>233.41236446572393</c:v>
+                  <c:v>231</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>236.73963298598031</c:v>
+                  <c:v>234</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>240.10788309845722</c:v>
+                  <c:v>238</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>243.51757606196216</c:v>
+                  <c:v>241</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>246.9691781376753</c:v>
+                  <c:v>245</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>250.46316064200641</c:v>
+                  <c:v>248</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>254</c:v>
+                  <c:v>251</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2854,11 +3314,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{948B5A9D-72BB-A343-90DB-2FF76739B214}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F08D7D-190C-1747-8337-DAA8CB3D6CAB}">
-  <dimension ref="A1:B256"/>
+  <dimension ref="A1:JD494"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45:JD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2876,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <f>(10^(A2/255)-1)/9*A2</f>
+        <f>ROUND((10^(A2/255)-1)/9*A2,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2885,8 +3359,8 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <f>(10^(A3/254)-1)/9*A3</f>
-        <v>1.0118344310951549E-3</v>
+        <f t="shared" ref="B3:B66" si="0">ROUND((10^(A3/255)-1)/9*A3,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2894,8 +3368,8 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B67" si="0">(10^(A4/254)-1)/9*A4</f>
-        <v>4.0657662848677667E-3</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -2904,7 +3378,7 @@
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>9.1896901318506696E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2913,7 +3387,7 @@
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>1.6411839238819503E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -2922,7 +3396,7 @@
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>2.5760789424218937E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -2931,7 +3405,7 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>3.7265462955719197E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -2940,7 +3414,7 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>5.0955132490352772E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -2949,7 +3423,7 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>6.6859425057681998E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -2958,7 +3432,7 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>8.5008326086454256E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -2967,7 +3441,7 @@
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>0.10543218347520798</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -2976,7 +3450,7 @@
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>0.12816171170729468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -2985,7 +3459,7 @@
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>0.15322799601078901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -2994,7 +3468,7 @@
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>0.18066249656376315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -3003,7 +3477,7 @@
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>0.21049705274540681</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -3012,7 +3486,7 @@
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>0.24276388743347774</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -3021,7 +3495,7 @@
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>0.27749561134857675</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -3030,7 +3504,7 @@
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>0.314725227445741</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -3039,7 +3513,7 @@
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>0.35448613535385887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -3048,7 +3522,7 @@
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>0.39681213586341296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -3057,7 +3531,7 @@
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>0.44173743546306149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -3066,7 +3540,7 @@
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>0.48929665092557745</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -3075,7 +3549,7 @@
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>0.53952481394366791</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -3084,7 +3558,7 @@
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>0.59245737581620228</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -3093,7 +3567,7 @@
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>0.64813021218537925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -3102,7 +3576,7 @@
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>0.70657962782537787</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -3111,7 +3585,7 @@
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>0.76784236148303264</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -3120,7 +3594,7 @@
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>0.83195559077108272</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -3129,7 +3603,7 @@
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>0.89895693711455948</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -3138,7 +3612,7 @@
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>0.96888447075086059</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -3147,2023 +3621,5814 @@
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>1.0417767157840885</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:264" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>1.1176726552942302</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:264" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
-        <v>1.1966117365017424</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:264" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>1.278633875988143</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:264" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>1.3637794649731942</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:264" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>1.4520893746492762</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:264" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
-        <v>1.5436049615735499</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:264" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39">
         <f t="shared" si="0"/>
-        <v>1.6383680731185344</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:264" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40">
         <f t="shared" si="0"/>
-        <v>1.7364210529816899</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:264" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41">
         <f t="shared" si="0"/>
-        <v>1.837806746754661</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:264" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42">
         <f t="shared" si="0"/>
-        <v>1.942568507552781</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:264" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43">
         <f t="shared" si="0"/>
-        <v>2.0507502017054868</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:264" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44">
         <f t="shared" si="0"/>
-        <v>2.1623962145082976</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:264" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45">
         <f t="shared" si="0"/>
-        <v>2.2775514560369707</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="I45" t="s">
+        <v>2</v>
+      </c>
+      <c r="J45" t="s">
+        <v>2</v>
+      </c>
+      <c r="K45" t="s">
+        <v>2</v>
+      </c>
+      <c r="L45" t="s">
+        <v>2</v>
+      </c>
+      <c r="M45" t="s">
+        <v>2</v>
+      </c>
+      <c r="N45" t="s">
+        <v>2</v>
+      </c>
+      <c r="O45" t="s">
+        <v>2</v>
+      </c>
+      <c r="P45" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>2</v>
+      </c>
+      <c r="R45" t="s">
+        <v>2</v>
+      </c>
+      <c r="S45" t="s">
+        <v>2</v>
+      </c>
+      <c r="T45" t="s">
+        <v>2</v>
+      </c>
+      <c r="U45" t="s">
+        <v>2</v>
+      </c>
+      <c r="V45" t="s">
+        <v>2</v>
+      </c>
+      <c r="W45" t="s">
+        <v>2</v>
+      </c>
+      <c r="X45" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI45" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ45" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK45" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL45" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM45" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN45" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO45" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP45" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ45" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR45" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS45" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT45" t="s">
+        <v>4</v>
+      </c>
+      <c r="AU45" t="s">
+        <v>4</v>
+      </c>
+      <c r="AV45" t="s">
+        <v>4</v>
+      </c>
+      <c r="AW45" t="s">
+        <v>4</v>
+      </c>
+      <c r="AX45" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY45" t="s">
+        <v>4</v>
+      </c>
+      <c r="AZ45" t="s">
+        <v>4</v>
+      </c>
+      <c r="BA45" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB45" t="s">
+        <v>4</v>
+      </c>
+      <c r="BC45" t="s">
+        <v>5</v>
+      </c>
+      <c r="BD45" t="s">
+        <v>5</v>
+      </c>
+      <c r="BE45" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF45" t="s">
+        <v>5</v>
+      </c>
+      <c r="BG45" t="s">
+        <v>5</v>
+      </c>
+      <c r="BH45" t="s">
+        <v>5</v>
+      </c>
+      <c r="BI45" t="s">
+        <v>5</v>
+      </c>
+      <c r="BJ45" t="s">
+        <v>5</v>
+      </c>
+      <c r="BK45" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL45" t="s">
+        <v>6</v>
+      </c>
+      <c r="BM45" t="s">
+        <v>6</v>
+      </c>
+      <c r="BN45" t="s">
+        <v>6</v>
+      </c>
+      <c r="BO45" t="s">
+        <v>6</v>
+      </c>
+      <c r="BP45" t="s">
+        <v>6</v>
+      </c>
+      <c r="BQ45" t="s">
+        <v>7</v>
+      </c>
+      <c r="BR45" t="s">
+        <v>7</v>
+      </c>
+      <c r="BS45" t="s">
+        <v>7</v>
+      </c>
+      <c r="BT45" t="s">
+        <v>7</v>
+      </c>
+      <c r="BU45" t="s">
+        <v>7</v>
+      </c>
+      <c r="BV45" t="s">
+        <v>8</v>
+      </c>
+      <c r="BW45" t="s">
+        <v>8</v>
+      </c>
+      <c r="BX45" t="s">
+        <v>8</v>
+      </c>
+      <c r="BY45" t="s">
+        <v>8</v>
+      </c>
+      <c r="BZ45" t="s">
+        <v>8</v>
+      </c>
+      <c r="CA45" t="s">
+        <v>9</v>
+      </c>
+      <c r="CB45" t="s">
+        <v>9</v>
+      </c>
+      <c r="CC45" t="s">
+        <v>9</v>
+      </c>
+      <c r="CD45" t="s">
+        <v>9</v>
+      </c>
+      <c r="CE45" t="s">
+        <v>10</v>
+      </c>
+      <c r="CF45" t="s">
+        <v>10</v>
+      </c>
+      <c r="CG45" t="s">
+        <v>10</v>
+      </c>
+      <c r="CH45" t="s">
+        <v>10</v>
+      </c>
+      <c r="CI45" t="s">
+        <v>11</v>
+      </c>
+      <c r="CJ45" t="s">
+        <v>11</v>
+      </c>
+      <c r="CK45" t="s">
+        <v>11</v>
+      </c>
+      <c r="CL45" t="s">
+        <v>11</v>
+      </c>
+      <c r="CM45" t="s">
+        <v>12</v>
+      </c>
+      <c r="CN45" t="s">
+        <v>12</v>
+      </c>
+      <c r="CO45" t="s">
+        <v>12</v>
+      </c>
+      <c r="CP45" t="s">
+        <v>13</v>
+      </c>
+      <c r="CQ45" t="s">
+        <v>13</v>
+      </c>
+      <c r="CR45" t="s">
+        <v>13</v>
+      </c>
+      <c r="CS45" t="s">
+        <v>14</v>
+      </c>
+      <c r="CT45" t="s">
+        <v>14</v>
+      </c>
+      <c r="CU45" t="s">
+        <v>14</v>
+      </c>
+      <c r="CV45" t="s">
+        <v>15</v>
+      </c>
+      <c r="CW45" t="s">
+        <v>15</v>
+      </c>
+      <c r="CX45" t="s">
+        <v>15</v>
+      </c>
+      <c r="CY45" t="s">
+        <v>16</v>
+      </c>
+      <c r="CZ45" t="s">
+        <v>16</v>
+      </c>
+      <c r="DA45" t="s">
+        <v>16</v>
+      </c>
+      <c r="DB45" t="s">
+        <v>17</v>
+      </c>
+      <c r="DC45" t="s">
+        <v>17</v>
+      </c>
+      <c r="DD45" t="s">
+        <v>17</v>
+      </c>
+      <c r="DE45" t="s">
+        <v>18</v>
+      </c>
+      <c r="DF45" t="s">
+        <v>18</v>
+      </c>
+      <c r="DG45" t="s">
+        <v>19</v>
+      </c>
+      <c r="DH45" t="s">
+        <v>19</v>
+      </c>
+      <c r="DI45" t="s">
+        <v>20</v>
+      </c>
+      <c r="DJ45" t="s">
+        <v>20</v>
+      </c>
+      <c r="DK45" t="s">
+        <v>20</v>
+      </c>
+      <c r="DL45" t="s">
+        <v>21</v>
+      </c>
+      <c r="DM45" t="s">
+        <v>21</v>
+      </c>
+      <c r="DN45" t="s">
+        <v>22</v>
+      </c>
+      <c r="DO45" t="s">
+        <v>22</v>
+      </c>
+      <c r="DP45" t="s">
+        <v>23</v>
+      </c>
+      <c r="DQ45" t="s">
+        <v>23</v>
+      </c>
+      <c r="DR45" t="s">
+        <v>24</v>
+      </c>
+      <c r="DS45" t="s">
+        <v>24</v>
+      </c>
+      <c r="DT45" t="s">
+        <v>25</v>
+      </c>
+      <c r="DU45" t="s">
+        <v>25</v>
+      </c>
+      <c r="DV45" t="s">
+        <v>26</v>
+      </c>
+      <c r="DW45" t="s">
+        <v>26</v>
+      </c>
+      <c r="DX45" t="s">
+        <v>27</v>
+      </c>
+      <c r="DY45" t="s">
+        <v>28</v>
+      </c>
+      <c r="DZ45" t="s">
+        <v>28</v>
+      </c>
+      <c r="EA45" t="s">
+        <v>29</v>
+      </c>
+      <c r="EB45" t="s">
+        <v>29</v>
+      </c>
+      <c r="EC45" t="s">
+        <v>30</v>
+      </c>
+      <c r="ED45" t="s">
+        <v>30</v>
+      </c>
+      <c r="EE45" t="s">
+        <v>31</v>
+      </c>
+      <c r="EF45" t="s">
+        <v>32</v>
+      </c>
+      <c r="EG45" t="s">
+        <v>32</v>
+      </c>
+      <c r="EH45" t="s">
+        <v>33</v>
+      </c>
+      <c r="EI45" t="s">
+        <v>34</v>
+      </c>
+      <c r="EJ45" t="s">
+        <v>34</v>
+      </c>
+      <c r="EK45" t="s">
+        <v>35</v>
+      </c>
+      <c r="EL45" t="s">
+        <v>36</v>
+      </c>
+      <c r="EM45" t="s">
+        <v>36</v>
+      </c>
+      <c r="EN45" t="s">
+        <v>37</v>
+      </c>
+      <c r="EO45" t="s">
+        <v>38</v>
+      </c>
+      <c r="EP45" t="s">
+        <v>38</v>
+      </c>
+      <c r="EQ45" t="s">
+        <v>39</v>
+      </c>
+      <c r="ER45" t="s">
+        <v>40</v>
+      </c>
+      <c r="ES45" t="s">
+        <v>41</v>
+      </c>
+      <c r="ET45" t="s">
+        <v>42</v>
+      </c>
+      <c r="EU45" t="s">
+        <v>42</v>
+      </c>
+      <c r="EV45" t="s">
+        <v>43</v>
+      </c>
+      <c r="EW45" t="s">
+        <v>44</v>
+      </c>
+      <c r="EX45" t="s">
+        <v>45</v>
+      </c>
+      <c r="EY45" t="s">
+        <v>46</v>
+      </c>
+      <c r="EZ45" t="s">
+        <v>46</v>
+      </c>
+      <c r="FA45" t="s">
+        <v>47</v>
+      </c>
+      <c r="FB45" t="s">
+        <v>48</v>
+      </c>
+      <c r="FC45" t="s">
+        <v>49</v>
+      </c>
+      <c r="FD45" t="s">
+        <v>50</v>
+      </c>
+      <c r="FE45" t="s">
+        <v>51</v>
+      </c>
+      <c r="FF45" t="s">
+        <v>52</v>
+      </c>
+      <c r="FG45" t="s">
+        <v>53</v>
+      </c>
+      <c r="FH45" t="s">
+        <v>54</v>
+      </c>
+      <c r="FI45" t="s">
+        <v>55</v>
+      </c>
+      <c r="FJ45" t="s">
+        <v>56</v>
+      </c>
+      <c r="FK45" t="s">
+        <v>57</v>
+      </c>
+      <c r="FL45" t="s">
+        <v>58</v>
+      </c>
+      <c r="FM45" t="s">
+        <v>59</v>
+      </c>
+      <c r="FN45" t="s">
+        <v>60</v>
+      </c>
+      <c r="FO45" t="s">
+        <v>61</v>
+      </c>
+      <c r="FP45" t="s">
+        <v>62</v>
+      </c>
+      <c r="FQ45" t="s">
+        <v>63</v>
+      </c>
+      <c r="FR45" t="s">
+        <v>64</v>
+      </c>
+      <c r="FS45" t="s">
+        <v>65</v>
+      </c>
+      <c r="FT45" t="s">
+        <v>66</v>
+      </c>
+      <c r="FU45" t="s">
+        <v>67</v>
+      </c>
+      <c r="FV45" t="s">
+        <v>68</v>
+      </c>
+      <c r="FW45" t="s">
+        <v>69</v>
+      </c>
+      <c r="FX45" t="s">
+        <v>70</v>
+      </c>
+      <c r="FY45" t="s">
+        <v>71</v>
+      </c>
+      <c r="FZ45" t="s">
+        <v>72</v>
+      </c>
+      <c r="GA45" t="s">
+        <v>73</v>
+      </c>
+      <c r="GB45" t="s">
+        <v>74</v>
+      </c>
+      <c r="GC45" t="s">
+        <v>75</v>
+      </c>
+      <c r="GD45" t="s">
+        <v>76</v>
+      </c>
+      <c r="GE45" t="s">
+        <v>77</v>
+      </c>
+      <c r="GF45" t="s">
+        <v>78</v>
+      </c>
+      <c r="GG45" t="s">
+        <v>79</v>
+      </c>
+      <c r="GH45" t="s">
+        <v>80</v>
+      </c>
+      <c r="GI45" t="s">
+        <v>81</v>
+      </c>
+      <c r="GJ45" t="s">
+        <v>82</v>
+      </c>
+      <c r="GK45" t="s">
+        <v>83</v>
+      </c>
+      <c r="GL45" t="s">
+        <v>84</v>
+      </c>
+      <c r="GM45" t="s">
+        <v>85</v>
+      </c>
+      <c r="GN45" t="s">
+        <v>86</v>
+      </c>
+      <c r="GO45" t="s">
+        <v>87</v>
+      </c>
+      <c r="GP45" t="s">
+        <v>88</v>
+      </c>
+      <c r="GQ45" t="s">
+        <v>89</v>
+      </c>
+      <c r="GR45" t="s">
+        <v>90</v>
+      </c>
+      <c r="GS45" t="s">
+        <v>91</v>
+      </c>
+      <c r="GT45" t="s">
+        <v>92</v>
+      </c>
+      <c r="GU45" t="s">
+        <v>93</v>
+      </c>
+      <c r="GV45" t="s">
+        <v>94</v>
+      </c>
+      <c r="GW45" t="s">
+        <v>95</v>
+      </c>
+      <c r="GX45" t="s">
+        <v>96</v>
+      </c>
+      <c r="GY45" t="s">
+        <v>97</v>
+      </c>
+      <c r="GZ45" t="s">
+        <v>98</v>
+      </c>
+      <c r="HA45" t="s">
+        <v>99</v>
+      </c>
+      <c r="HB45" t="s">
+        <v>100</v>
+      </c>
+      <c r="HC45" t="s">
+        <v>101</v>
+      </c>
+      <c r="HD45" t="s">
+        <v>102</v>
+      </c>
+      <c r="HE45" t="s">
+        <v>103</v>
+      </c>
+      <c r="HF45" t="s">
+        <v>104</v>
+      </c>
+      <c r="HG45" t="s">
+        <v>105</v>
+      </c>
+      <c r="HH45" t="s">
+        <v>106</v>
+      </c>
+      <c r="HI45" t="s">
+        <v>107</v>
+      </c>
+      <c r="HJ45" t="s">
+        <v>108</v>
+      </c>
+      <c r="HK45" t="s">
+        <v>109</v>
+      </c>
+      <c r="HL45" t="s">
+        <v>110</v>
+      </c>
+      <c r="HM45" t="s">
+        <v>111</v>
+      </c>
+      <c r="HN45" t="s">
+        <v>112</v>
+      </c>
+      <c r="HO45" t="s">
+        <v>113</v>
+      </c>
+      <c r="HP45" t="s">
+        <v>114</v>
+      </c>
+      <c r="HQ45" t="s">
+        <v>115</v>
+      </c>
+      <c r="HR45" t="s">
+        <v>116</v>
+      </c>
+      <c r="HS45" t="s">
+        <v>117</v>
+      </c>
+      <c r="HT45" t="s">
+        <v>118</v>
+      </c>
+      <c r="HU45" t="s">
+        <v>119</v>
+      </c>
+      <c r="HV45" t="s">
+        <v>120</v>
+      </c>
+      <c r="HW45" t="s">
+        <v>121</v>
+      </c>
+      <c r="HX45" t="s">
+        <v>122</v>
+      </c>
+      <c r="HY45" t="s">
+        <v>123</v>
+      </c>
+      <c r="HZ45" t="s">
+        <v>124</v>
+      </c>
+      <c r="IA45" t="s">
+        <v>125</v>
+      </c>
+      <c r="IB45" t="s">
+        <v>126</v>
+      </c>
+      <c r="IC45" t="s">
+        <v>127</v>
+      </c>
+      <c r="ID45" t="s">
+        <v>128</v>
+      </c>
+      <c r="IE45" t="s">
+        <v>129</v>
+      </c>
+      <c r="IF45" t="s">
+        <v>130</v>
+      </c>
+      <c r="IG45" t="s">
+        <v>131</v>
+      </c>
+      <c r="IH45" t="s">
+        <v>132</v>
+      </c>
+      <c r="II45" t="s">
+        <v>133</v>
+      </c>
+      <c r="IJ45" t="s">
+        <v>134</v>
+      </c>
+      <c r="IK45" t="s">
+        <v>135</v>
+      </c>
+      <c r="IL45" t="s">
+        <v>136</v>
+      </c>
+      <c r="IM45" t="s">
+        <v>137</v>
+      </c>
+      <c r="IN45" t="s">
+        <v>138</v>
+      </c>
+      <c r="IO45" t="s">
+        <v>139</v>
+      </c>
+      <c r="IP45" t="s">
+        <v>140</v>
+      </c>
+      <c r="IQ45" t="s">
+        <v>141</v>
+      </c>
+      <c r="IR45" t="s">
+        <v>142</v>
+      </c>
+      <c r="IS45" t="s">
+        <v>143</v>
+      </c>
+      <c r="IT45" t="s">
+        <v>144</v>
+      </c>
+      <c r="IU45" t="s">
+        <v>145</v>
+      </c>
+      <c r="IV45" t="s">
+        <v>146</v>
+      </c>
+      <c r="IW45" t="s">
+        <v>147</v>
+      </c>
+      <c r="IX45" t="s">
+        <v>148</v>
+      </c>
+      <c r="IY45" t="s">
+        <v>149</v>
+      </c>
+      <c r="IZ45" t="s">
+        <v>150</v>
+      </c>
+      <c r="JA45" t="s">
+        <v>151</v>
+      </c>
+      <c r="JB45" t="s">
+        <v>152</v>
+      </c>
+      <c r="JC45" t="s">
+        <v>153</v>
+      </c>
+      <c r="JD45" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="46" spans="1:264" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46">
         <f t="shared" si="0"/>
-        <v>2.3962613670245387</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="I46" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:264" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="B47">
         <f t="shared" si="0"/>
-        <v>2.5185719248018503</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="I47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:264" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>46</v>
       </c>
       <c r="B48">
         <f t="shared" si="0"/>
-        <v>2.6445296493023034</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="I48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="B49">
         <f t="shared" si="0"/>
-        <v>2.7741816091314435</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="I49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50">
         <f t="shared" si="0"/>
-        <v>2.907575427702116</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="I50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="B51">
         <f t="shared" si="0"/>
-        <v>3.0447592894358446</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="I51" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52">
         <f t="shared" si="0"/>
-        <v>3.1857819460311645</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="I52" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53">
         <f t="shared" si="0"/>
-        <v>3.3306927227995735</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="I53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54">
         <f t="shared" si="0"/>
-        <v>3.4795415250698651</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="I54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>53</v>
       </c>
       <c r="B55">
         <f t="shared" si="0"/>
-        <v>3.6323788446615075</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="I55" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>54</v>
       </c>
       <c r="B56">
         <f t="shared" si="0"/>
-        <v>3.7892557664278401</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="I56" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57">
         <f t="shared" si="0"/>
-        <v>3.9502239748697985</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="I57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58">
         <f t="shared" si="0"/>
-        <v>4.1153357608209191</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="I58" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59">
         <f t="shared" si="0"/>
-        <v>4.2846440282043607</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="I59" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>58</v>
       </c>
       <c r="B60">
         <f t="shared" si="0"/>
-        <v>4.4582023008627223</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="I60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>59</v>
       </c>
       <c r="B61">
         <f t="shared" si="0"/>
-        <v>4.6360647294614026</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="I61" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>60</v>
       </c>
       <c r="B62">
         <f t="shared" si="0"/>
-        <v>4.8182860984662845</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="I62" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>61</v>
       </c>
       <c r="B63">
         <f t="shared" si="0"/>
-        <v>5.0049218331965131</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="I63" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>62</v>
       </c>
       <c r="B64">
         <f t="shared" si="0"/>
-        <v>5.1960280069531857</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="I64" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>63</v>
       </c>
       <c r="B65">
         <f t="shared" si="0"/>
-        <v>5.391661348224714</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="I65" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>64</v>
       </c>
       <c r="B66">
         <f t="shared" si="0"/>
-        <v>5.5918792479696844</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="I66" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>65</v>
       </c>
       <c r="B67">
-        <f t="shared" si="0"/>
-        <v>5.7967397669780389</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" ref="B67:B130" si="1">ROUND((10^(A67/255)-1)/9*A67,0)</f>
+        <v>6</v>
+      </c>
+      <c r="I67" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>66</v>
       </c>
       <c r="B68">
-        <f t="shared" ref="B68:B131" si="1">(10^(A68/254)-1)/9*A68</f>
-        <v>6.0063016433113692</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="I68" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>67</v>
       </c>
       <c r="B69">
         <f t="shared" si="1"/>
-        <v>6.2206242998231929</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="I69" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>68</v>
       </c>
       <c r="B70">
         <f t="shared" si="1"/>
-        <v>6.4397678517600223</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="I70" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>69</v>
       </c>
       <c r="B71">
         <f t="shared" si="1"/>
-        <v>6.6637931144440659</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="I71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>70</v>
       </c>
       <c r="B72">
         <f t="shared" si="1"/>
-        <v>6.8927616110384715</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="I72" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>71</v>
       </c>
       <c r="B73">
         <f t="shared" si="1"/>
-        <v>7.1267355803959154</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="I73" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>72</v>
       </c>
       <c r="B74">
         <f t="shared" si="1"/>
-        <v>7.3657779849914409</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="I74" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>73</v>
       </c>
       <c r="B75">
         <f t="shared" si="1"/>
-        <v>7.6099525189404416</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="I75" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>74</v>
       </c>
       <c r="B76">
         <f t="shared" si="1"/>
-        <v>7.8593236161026363</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="I76" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>75</v>
       </c>
       <c r="B77">
         <f t="shared" si="1"/>
-        <v>8.1139564582730141</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="I77" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>76</v>
       </c>
       <c r="B78">
         <f t="shared" si="1"/>
-        <v>8.3739169834605711</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="I78" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>77</v>
       </c>
       <c r="B79">
         <f t="shared" si="1"/>
-        <v>8.6392718942558187</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="I79" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>78</v>
       </c>
       <c r="B80">
         <f t="shared" si="1"/>
-        <v>8.9100886662880079</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="I80" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>79</v>
       </c>
       <c r="B81">
         <f t="shared" si="1"/>
-        <v>9.1864355567729099</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="I81" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>80</v>
       </c>
       <c r="B82">
         <f t="shared" si="1"/>
-        <v>9.4683816131522462</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="I82" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>81</v>
       </c>
       <c r="B83">
         <f t="shared" si="1"/>
-        <v>9.7559966818256125</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="I83" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>82</v>
       </c>
       <c r="B84">
         <f t="shared" si="1"/>
-        <v>10.049351416975894</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="I84" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>83</v>
       </c>
       <c r="B85">
         <f t="shared" si="1"/>
-        <v>10.348517289489205</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="I85" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>84</v>
       </c>
       <c r="B86">
         <f t="shared" si="1"/>
-        <v>10.653566595970254</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="I86" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>85</v>
       </c>
       <c r="B87">
         <f t="shared" si="1"/>
-        <v>10.964572467854211</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="I87" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>86</v>
       </c>
       <c r="B88">
         <f t="shared" si="1"/>
-        <v>11.281608880616032</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="I88" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>87</v>
       </c>
       <c r="B89">
         <f t="shared" si="1"/>
-        <v>11.60475066307829</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="I89" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>88</v>
       </c>
       <c r="B90">
         <f t="shared" si="1"/>
-        <v>11.934073506818557</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="I90" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>89</v>
       </c>
       <c r="B91">
         <f t="shared" si="1"/>
-        <v>12.269653975677297</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="I91" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>90</v>
       </c>
       <c r="B92">
         <f t="shared" si="1"/>
-        <v>12.611569515367442</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="I92" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>91</v>
       </c>
       <c r="B93">
         <f t="shared" si="1"/>
-        <v>12.959898463186622</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="I93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>92</v>
       </c>
       <c r="B94">
         <f t="shared" si="1"/>
-        <v>13.314720057833153</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="I94" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>93</v>
       </c>
       <c r="B95">
         <f t="shared" si="1"/>
-        <v>13.676114449326873</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="I95" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>94</v>
       </c>
       <c r="B96">
         <f t="shared" si="1"/>
-        <v>14.044162709035907</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="I96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>95</v>
       </c>
       <c r="B97">
         <f t="shared" si="1"/>
-        <v>14.418946839810477</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="I97" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>96</v>
       </c>
       <c r="B98">
         <f t="shared" si="1"/>
-        <v>14.800549786224892</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="I98" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>97</v>
       </c>
       <c r="B99">
         <f t="shared" si="1"/>
-        <v>15.189055444928773</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="I99" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>98</v>
       </c>
       <c r="B100">
         <f t="shared" si="1"/>
-        <v>15.584548675108801</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="I100" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>99</v>
       </c>
       <c r="B101">
         <f t="shared" si="1"/>
-        <v>15.987115309061958</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="I101" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>100</v>
       </c>
       <c r="B102">
         <f t="shared" si="1"/>
-        <v>16.39684216288158</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="I102" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>101</v>
       </c>
       <c r="B103">
         <f t="shared" si="1"/>
-        <v>16.813817047257281</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="I103" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>102</v>
       </c>
       <c r="B104">
         <f t="shared" si="1"/>
-        <v>17.238128778390074</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="I104" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>103</v>
       </c>
       <c r="B105">
         <f t="shared" si="1"/>
-        <v>17.669867189023726</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="I105" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>104</v>
       </c>
       <c r="B106">
         <f t="shared" si="1"/>
-        <v>18.109123139593681</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="I106" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>105</v>
       </c>
       <c r="B107">
         <f t="shared" si="1"/>
-        <v>18.55598852949473</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="I107" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>106</v>
       </c>
       <c r="B108">
         <f t="shared" si="1"/>
-        <v>19.010556308468676</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="I108" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>107</v>
       </c>
       <c r="B109">
         <f t="shared" si="1"/>
-        <v>19.472920488113267</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="I109" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>108</v>
       </c>
       <c r="B110">
         <f t="shared" si="1"/>
-        <v>19.943176153513569</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="I110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>109</v>
       </c>
       <c r="B111">
         <f t="shared" si="1"/>
-        <v>20.421419474997222</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="I111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>110</v>
       </c>
       <c r="B112">
         <f t="shared" si="1"/>
-        <v>20.907747720014665</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="I112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>111</v>
       </c>
       <c r="B113">
         <f t="shared" si="1"/>
-        <v>21.40225926514584</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="I113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>112</v>
       </c>
       <c r="B114">
         <f t="shared" si="1"/>
-        <v>21.90505360823451</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="I114" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>113</v>
       </c>
       <c r="B115">
         <f t="shared" si="1"/>
-        <v>22.416231380651656</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="I115" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>114</v>
       </c>
       <c r="B116">
         <f t="shared" si="1"/>
-        <v>22.935894359689218</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="I116" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>115</v>
       </c>
       <c r="B117">
         <f t="shared" si="1"/>
-        <v>23.464145481085531</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="I117" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>116</v>
       </c>
       <c r="B118">
         <f t="shared" si="1"/>
-        <v>24.00108885168396</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="I118" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>117</v>
       </c>
       <c r="B119">
         <f t="shared" si="1"/>
-        <v>24.54682976222588</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="I119" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>118</v>
       </c>
       <c r="B120">
         <f t="shared" si="1"/>
-        <v>25.101474700279656</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="I120" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>119</v>
       </c>
       <c r="B121">
         <f t="shared" si="1"/>
-        <v>25.665131363306841</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="I121" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>120</v>
       </c>
       <c r="B122">
         <f t="shared" si="1"/>
-        <v>26.237908671867167</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="I122" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>121</v>
       </c>
       <c r="B123">
         <f t="shared" si="1"/>
-        <v>26.819916782963595</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="I123" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>122</v>
       </c>
       <c r="B124">
         <f t="shared" si="1"/>
-        <v>27.411267103529141</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="I124" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>123</v>
       </c>
       <c r="B125">
         <f t="shared" si="1"/>
-        <v>28.012072304056655</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="I125" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>124</v>
       </c>
       <c r="B126">
         <f t="shared" si="1"/>
-        <v>28.622446332373297</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="I126" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>125</v>
       </c>
       <c r="B127">
         <f t="shared" si="1"/>
-        <v>29.242504427561002</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="I127" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>126</v>
       </c>
       <c r="B128">
         <f t="shared" si="1"/>
-        <v>29.872363134024674</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="I128" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>127</v>
       </c>
       <c r="B129">
         <f t="shared" si="1"/>
-        <v>30.512140315709352</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="I129" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>128</v>
       </c>
       <c r="B130">
         <f t="shared" si="1"/>
-        <v>31.1619551704683</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="I130" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>129</v>
       </c>
       <c r="B131">
-        <f t="shared" si="1"/>
-        <v>31.821928244583095</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" ref="B131:B194" si="2">ROUND((10^(A131/255)-1)/9*A131,0)</f>
+        <v>32</v>
+      </c>
+      <c r="I131" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>130</v>
       </c>
       <c r="B132">
-        <f t="shared" ref="B132:B195" si="2">(10^(A132/254)-1)/9*A132</f>
-        <v>32.49218144743773</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="I132" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>131</v>
       </c>
       <c r="B133">
         <f t="shared" si="2"/>
-        <v>33.17283806634812</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="I133" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>132</v>
       </c>
       <c r="B134">
         <f t="shared" si="2"/>
-        <v>33.864022781548613</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="I134" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>133</v>
       </c>
       <c r="B135">
         <f t="shared" si="2"/>
-        <v>34.565861681337196</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="I135" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>134</v>
       </c>
       <c r="B136">
         <f t="shared" si="2"/>
-        <v>35.278482277381059</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="I136" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>135</v>
       </c>
       <c r="B137">
         <f t="shared" si="2"/>
-        <v>36.002013520184121</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="I137" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>136</v>
       </c>
       <c r="B138">
         <f t="shared" si="2"/>
-        <v>36.736585814718232</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="I138" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>137</v>
       </c>
       <c r="B139">
         <f t="shared" si="2"/>
-        <v>37.48233103621979</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="I139" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>138</v>
       </c>
       <c r="B140">
         <f t="shared" si="2"/>
-        <v>38.239382546153351</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="I140" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>139</v>
       </c>
       <c r="B141">
         <f t="shared" si="2"/>
-        <v>39.00787520834411</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="I141" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>140</v>
       </c>
       <c r="B142">
         <f t="shared" si="2"/>
-        <v>39.787945405281057</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="I142" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>141</v>
       </c>
       <c r="B143">
         <f t="shared" si="2"/>
-        <v>40.579731054592244</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="I143" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>142</v>
       </c>
       <c r="B144">
         <f t="shared" si="2"/>
-        <v>41.383371625694366</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="I144" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>143</v>
       </c>
       <c r="B145">
         <f t="shared" si="2"/>
-        <v>42.199008156618227</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="I145" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>144</v>
       </c>
       <c r="B146">
         <f t="shared" si="2"/>
-        <v>43.026783271011915</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="I146" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>145</v>
       </c>
       <c r="B147">
         <f t="shared" si="2"/>
-        <v>43.86684119532363</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="I147" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>146</v>
       </c>
       <c r="B148">
         <f t="shared" si="2"/>
-        <v>44.719327776165912</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="I148" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>147</v>
       </c>
       <c r="B149">
         <f t="shared" si="2"/>
-        <v>45.584390497863289</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="I149" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>148</v>
       </c>
       <c r="B150">
         <f t="shared" si="2"/>
-        <v>46.462178500185068</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="I150" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>149</v>
       </c>
       <c r="B151">
         <f t="shared" si="2"/>
-        <v>47.352842596265369</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="I151" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>150</v>
       </c>
       <c r="B152">
         <f t="shared" si="2"/>
-        <v>48.256535290712137</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="I152" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>151</v>
       </c>
       <c r="B153">
         <f t="shared" si="2"/>
-        <v>49.173410797907394</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="I153" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>152</v>
       </c>
       <c r="B154">
         <f t="shared" si="2"/>
-        <v>50.103625060500299</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="I154" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>153</v>
       </c>
       <c r="B155">
         <f t="shared" si="2"/>
-        <v>51.047335768095351</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="I155" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>154</v>
       </c>
       <c r="B156">
         <f t="shared" si="2"/>
-        <v>52.004702376137757</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="I156" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>155</v>
       </c>
       <c r="B157">
         <f t="shared" si="2"/>
-        <v>52.975886124997544</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="I157" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>156</v>
       </c>
       <c r="B158">
         <f t="shared" si="2"/>
-        <v>53.961050059255257</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="I158" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>157</v>
       </c>
       <c r="B159">
         <f t="shared" si="2"/>
-        <v>54.960359047190437</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="I159" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>158</v>
       </c>
       <c r="B160">
         <f t="shared" si="2"/>
-        <v>55.973979800475796</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="I160" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>159</v>
       </c>
       <c r="B161">
         <f t="shared" si="2"/>
-        <v>57.002080894078631</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="I161" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>160</v>
       </c>
       <c r="B162">
         <f t="shared" si="2"/>
-        <v>58.044832786371892</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="I162" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>161</v>
       </c>
       <c r="B163">
         <f t="shared" si="2"/>
-        <v>59.102407839457022</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="I163" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>162</v>
       </c>
       <c r="B164">
         <f t="shared" si="2"/>
-        <v>60.174980339700745</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="I164" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>163</v>
       </c>
       <c r="B165">
         <f t="shared" si="2"/>
-        <v>61.262726518487995</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="I165" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>164</v>
       </c>
       <c r="B166">
         <f t="shared" si="2"/>
-        <v>62.365824573193301</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="I166" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>165</v>
       </c>
       <c r="B167">
         <f t="shared" si="2"/>
-        <v>63.484454688372708</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="I167" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>166</v>
       </c>
       <c r="B168">
         <f t="shared" si="2"/>
-        <v>64.618799057178805</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="I168" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>167</v>
       </c>
       <c r="B169">
         <f t="shared" si="2"/>
-        <v>65.769041903000826</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="I169" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>168</v>
       </c>
       <c r="B170">
         <f t="shared" si="2"/>
-        <v>66.935369501332431</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+      <c r="I170" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>169</v>
       </c>
       <c r="B171">
         <f t="shared" si="2"/>
-        <v>68.117970201869241</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="I171" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>170</v>
       </c>
       <c r="B172">
         <f t="shared" si="2"/>
-        <v>69.317034450838918</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="I172" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>171</v>
       </c>
       <c r="B173">
         <f t="shared" si="2"/>
-        <v>70.532754813565745</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="I173" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>172</v>
       </c>
       <c r="B174">
         <f t="shared" si="2"/>
-        <v>71.765325997272271</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+      <c r="I174" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>173</v>
       </c>
       <c r="B175">
         <f t="shared" si="2"/>
-        <v>73.014944874120602</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+      <c r="I175" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>174</v>
       </c>
       <c r="B176">
         <f t="shared" si="2"/>
-        <v>74.281810504495795</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="I176" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>175</v>
       </c>
       <c r="B177">
         <f t="shared" si="2"/>
-        <v>75.566124160533661</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="I177" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>176</v>
       </c>
       <c r="B178">
         <f t="shared" si="2"/>
-        <v>76.868089349895541</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+      <c r="I178" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>177</v>
       </c>
       <c r="B179">
         <f t="shared" si="2"/>
-        <v>78.187911839792889</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+      <c r="I179" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>178</v>
       </c>
       <c r="B180">
         <f t="shared" si="2"/>
-        <v>79.525799681263862</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="I180" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>179</v>
       </c>
       <c r="B181">
         <f t="shared" si="2"/>
-        <v>80.881963233704766</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="I181" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>180</v>
       </c>
       <c r="B182">
         <f t="shared" si="2"/>
-        <v>82.256615189658845</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="I182" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>181</v>
       </c>
       <c r="B183">
         <f t="shared" si="2"/>
-        <v>83.649970599865071</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="I183" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>182</v>
       </c>
       <c r="B184">
         <f t="shared" si="2"/>
-        <v>85.062246898569839</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="I184" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>183</v>
       </c>
       <c r="B185">
         <f t="shared" si="2"/>
-        <v>86.493663929104002</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="I185" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>184</v>
       </c>
       <c r="B186">
         <f t="shared" si="2"/>
-        <v>87.944443969727871</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="I186" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>185</v>
       </c>
       <c r="B187">
         <f t="shared" si="2"/>
-        <v>89.414811759747622</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+      <c r="I187" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>186</v>
       </c>
       <c r="B188">
         <f t="shared" si="2"/>
-        <v>90.904994525905039</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="I188" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>187</v>
       </c>
       <c r="B189">
         <f t="shared" si="2"/>
-        <v>92.415222009043916</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="I189" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>188</v>
       </c>
       <c r="B190">
         <f t="shared" si="2"/>
-        <v>93.945726491055837</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="I190" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>189</v>
       </c>
       <c r="B191">
         <f t="shared" si="2"/>
-        <v>95.496742822108359</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="I191" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>190</v>
       </c>
       <c r="B192">
         <f t="shared" si="2"/>
-        <v>97.068508448158227</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+      <c r="I192" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>191</v>
       </c>
       <c r="B193">
         <f t="shared" si="2"/>
-        <v>98.661263438752812</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+      <c r="I193" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>192</v>
       </c>
       <c r="B194">
         <f t="shared" si="2"/>
-        <v>100.27525051512237</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="I194" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>193</v>
       </c>
       <c r="B195">
-        <f t="shared" si="2"/>
-        <v>101.91071507856687</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" ref="B195:B256" si="3">ROUND((10^(A195/255)-1)/9*A195,0)</f>
+        <v>101</v>
+      </c>
+      <c r="I195" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>194</v>
       </c>
       <c r="B196">
-        <f t="shared" ref="B196:B256" si="3">(10^(A196/254)-1)/9*A196</f>
-        <v>103.56790523913948</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>103</v>
+      </c>
+      <c r="I196" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>195</v>
       </c>
       <c r="B197">
         <f t="shared" si="3"/>
-        <v>105.24707184463044</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+      <c r="I197" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>196</v>
       </c>
       <c r="B198">
         <f t="shared" si="3"/>
-        <v>106.94846850985398</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+      <c r="I198" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>197</v>
       </c>
       <c r="B199">
         <f t="shared" si="3"/>
-        <v>108.67235164624192</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="I199" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>198</v>
       </c>
       <c r="B200">
         <f t="shared" si="3"/>
-        <v>110.41898049174658</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+      <c r="I200" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>199</v>
       </c>
       <c r="B201">
         <f t="shared" si="3"/>
-        <v>112.18861714105644</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+      <c r="I201" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>200</v>
       </c>
       <c r="B202">
         <f t="shared" si="3"/>
-        <v>113.98152657612748</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="I202" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>201</v>
       </c>
       <c r="B203">
         <f t="shared" si="3"/>
-        <v>115.79797669703431</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="I203" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>202</v>
       </c>
       <c r="B204">
         <f t="shared" si="3"/>
-        <v>117.63823835314309</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="I204" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>203</v>
       </c>
       <c r="B205">
         <f t="shared" si="3"/>
-        <v>119.50258537461058</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+      <c r="I205" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>204</v>
       </c>
       <c r="B206">
         <f t="shared" si="3"/>
-        <v>121.39129460421208</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+      <c r="I206" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>205</v>
       </c>
       <c r="B207">
         <f t="shared" si="3"/>
-        <v>123.30464592950219</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="I207" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>206</v>
       </c>
       <c r="B208">
         <f t="shared" si="3"/>
-        <v>125.24292231531115</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+      <c r="I208" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>207</v>
       </c>
       <c r="B209">
         <f t="shared" si="3"/>
-        <v>127.20640983658052</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+      <c r="I209" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>208</v>
       </c>
       <c r="B210">
         <f t="shared" si="3"/>
-        <v>129.19539771154214</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+      <c r="I210" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>209</v>
       </c>
       <c r="B211">
         <f t="shared" si="3"/>
-        <v>131.21017833524294</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I211" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>210</v>
       </c>
       <c r="B212">
         <f t="shared" si="3"/>
-        <v>133.25104731342003</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+      <c r="I212" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>211</v>
       </c>
       <c r="B213">
         <f t="shared" si="3"/>
-        <v>135.31830349672904</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+      <c r="I213" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>212</v>
       </c>
       <c r="B214">
         <f t="shared" si="3"/>
-        <v>137.41224901532988</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+      <c r="I214" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>213</v>
       </c>
       <c r="B215">
         <f t="shared" si="3"/>
-        <v>139.53318931383302</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+      <c r="I215" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>214</v>
       </c>
       <c r="B216">
         <f t="shared" si="3"/>
-        <v>141.68143318661069</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+      <c r="I216" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>215</v>
       </c>
       <c r="B217">
         <f t="shared" si="3"/>
-        <v>143.85729281347571</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+      <c r="I217" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>216</v>
       </c>
       <c r="B218">
         <f t="shared" si="3"/>
-        <v>146.06108379573305</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+      <c r="I218" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>217</v>
       </c>
       <c r="B219">
         <f t="shared" si="3"/>
-        <v>148.29312519260674</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+      <c r="I219" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>218</v>
       </c>
       <c r="B220">
         <f t="shared" si="3"/>
-        <v>150.55373955804691</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+      <c r="I220" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>219</v>
       </c>
       <c r="B221">
         <f t="shared" si="3"/>
-        <v>152.8432529779198</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+      <c r="I221" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>220</v>
       </c>
       <c r="B222">
         <f t="shared" si="3"/>
-        <v>155.16199510758602</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+      <c r="I222" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>221</v>
       </c>
       <c r="B223">
         <f t="shared" si="3"/>
-        <v>157.51029920986994</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I223" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>222</v>
       </c>
       <c r="B224">
         <f t="shared" si="3"/>
-        <v>159.88850219342459</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+      <c r="I224" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>223</v>
       </c>
       <c r="B225">
         <f t="shared" si="3"/>
-        <v>162.29694465149615</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="I225" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>224</v>
       </c>
       <c r="B226">
         <f t="shared" si="3"/>
-        <v>164.73597090109249</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+      <c r="I226" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>225</v>
       </c>
       <c r="B227">
         <f t="shared" si="3"/>
-        <v>167.20592902255888</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+      <c r="I227" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>226</v>
       </c>
       <c r="B228">
         <f t="shared" si="3"/>
-        <v>169.70717089956608</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+      <c r="I228" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>227</v>
       </c>
       <c r="B229">
         <f t="shared" si="3"/>
-        <v>172.2400522595149</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+      <c r="I229" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>228</v>
       </c>
       <c r="B230">
         <f t="shared" si="3"/>
-        <v>174.8049327143606</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+      <c r="I230" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>229</v>
       </c>
       <c r="B231">
         <f t="shared" si="3"/>
-        <v>177.40217580186237</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+      <c r="I231" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>230</v>
       </c>
       <c r="B232">
         <f t="shared" si="3"/>
-        <v>180.03214902726245</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+      <c r="I232" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>231</v>
       </c>
       <c r="B233">
         <f t="shared" si="3"/>
-        <v>182.6952239053978</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+      <c r="I233" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>232</v>
       </c>
       <c r="B234">
         <f t="shared" si="3"/>
-        <v>185.39177600325053</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="I234" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>233</v>
       </c>
       <c r="B235">
         <f t="shared" si="3"/>
-        <v>188.12218498294044</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+      <c r="I235" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>234</v>
       </c>
       <c r="B236">
         <f t="shared" si="3"/>
-        <v>190.88683464516481</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+      <c r="I236" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>235</v>
       </c>
       <c r="B237">
         <f t="shared" si="3"/>
-        <v>193.68611297308922</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+      <c r="I237" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>236</v>
       </c>
       <c r="B238">
         <f t="shared" si="3"/>
-        <v>196.52041217669517</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+      <c r="I238" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>237</v>
       </c>
       <c r="B239">
         <f t="shared" si="3"/>
-        <v>199.39012873758841</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+      <c r="I239" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>238</v>
       </c>
       <c r="B240">
         <f t="shared" si="3"/>
-        <v>202.29566345427224</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="G240">
+        <v>0</v>
+      </c>
+      <c r="H240" t="str">
+        <f>G240&amp;", "</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="I240" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>239</v>
       </c>
       <c r="B241">
         <f t="shared" si="3"/>
-        <v>205.23742148789225</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+      <c r="G241">
+        <v>0</v>
+      </c>
+      <c r="H241" t="str">
+        <f t="shared" ref="H241:H304" si="4">G241&amp;", "</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="I241" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>240</v>
       </c>
       <c r="B242">
         <f t="shared" si="3"/>
-        <v>208.21581240845504</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+      <c r="G242">
+        <v>0</v>
+      </c>
+      <c r="H242" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="I242" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>241</v>
       </c>
       <c r="B243">
         <f t="shared" si="3"/>
-        <v>211.23125024152756</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+      <c r="G243">
+        <v>0</v>
+      </c>
+      <c r="H243" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="I243" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>242</v>
       </c>
       <c r="B244">
         <f t="shared" si="3"/>
-        <v>214.28415351542191</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+      <c r="G244">
+        <v>0</v>
+      </c>
+      <c r="H244" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="I244" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>243</v>
       </c>
       <c r="B245">
         <f t="shared" si="3"/>
-        <v>217.37494530886832</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+      <c r="G245">
+        <v>0</v>
+      </c>
+      <c r="H245" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="I245" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>244</v>
       </c>
       <c r="B246">
         <f t="shared" si="3"/>
-        <v>220.50405329918493</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+      <c r="G246">
+        <v>0</v>
+      </c>
+      <c r="H246" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="I246" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>245</v>
       </c>
       <c r="B247">
         <f t="shared" si="3"/>
-        <v>223.67190981094654</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+      <c r="G247">
+        <v>0</v>
+      </c>
+      <c r="H247" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="I247" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>246</v>
       </c>
       <c r="B248">
         <f t="shared" si="3"/>
-        <v>226.878951865158</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+      <c r="G248">
+        <v>0</v>
+      </c>
+      <c r="H248" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="I248" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>247</v>
       </c>
       <c r="B249">
         <f t="shared" si="3"/>
-        <v>230.12562122893937</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+      <c r="G249">
+        <v>0</v>
+      </c>
+      <c r="H249" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="I249" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>248</v>
       </c>
       <c r="B250">
         <f t="shared" si="3"/>
-        <v>233.41236446572393</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+      <c r="G250">
+        <v>0</v>
+      </c>
+      <c r="H250" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="I250" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>249</v>
       </c>
       <c r="B251">
         <f t="shared" si="3"/>
-        <v>236.73963298598031</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+      <c r="G251">
+        <v>0</v>
+      </c>
+      <c r="H251" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="I251" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>250</v>
       </c>
       <c r="B252">
         <f t="shared" si="3"/>
-        <v>240.10788309845722</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+      <c r="G252">
+        <v>0</v>
+      </c>
+      <c r="H252" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="I252" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>251</v>
       </c>
       <c r="B253">
         <f t="shared" si="3"/>
-        <v>243.51757606196216</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+      <c r="G253">
+        <v>0</v>
+      </c>
+      <c r="H253" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="I253" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>252</v>
       </c>
       <c r="B254">
         <f t="shared" si="3"/>
-        <v>246.9691781376753</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+      <c r="G254">
+        <v>0</v>
+      </c>
+      <c r="H254" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="I254" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>253</v>
       </c>
       <c r="B255">
         <f t="shared" si="3"/>
-        <v>250.46316064200641</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+      <c r="G255">
+        <v>0</v>
+      </c>
+      <c r="H255" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="I255" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>254</v>
       </c>
       <c r="B256">
         <f t="shared" si="3"/>
-        <v>254</v>
+        <v>251</v>
+      </c>
+      <c r="G256">
+        <v>0</v>
+      </c>
+      <c r="H256" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="I256" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="257" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G257">
+        <v>0</v>
+      </c>
+      <c r="H257" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="I257" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="258" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G258">
+        <v>0</v>
+      </c>
+      <c r="H258" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="I258" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="259" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G259">
+        <v>0</v>
+      </c>
+      <c r="H259" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="I259" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="260" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G260">
+        <v>0</v>
+      </c>
+      <c r="H260" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="I260" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="261" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G261">
+        <v>0</v>
+      </c>
+      <c r="H261" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="I261" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="262" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G262">
+        <v>1</v>
+      </c>
+      <c r="H262" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">1, </v>
+      </c>
+      <c r="I262" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="263" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G263">
+        <v>1</v>
+      </c>
+      <c r="H263" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">1, </v>
+      </c>
+      <c r="I263" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="264" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G264">
+        <v>1</v>
+      </c>
+      <c r="H264" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">1, </v>
+      </c>
+      <c r="I264" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="265" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G265">
+        <v>1</v>
+      </c>
+      <c r="H265" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">1, </v>
+      </c>
+      <c r="I265" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="266" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G266">
+        <v>1</v>
+      </c>
+      <c r="H266" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">1, </v>
+      </c>
+      <c r="I266" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="267" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G267">
+        <v>1</v>
+      </c>
+      <c r="H267" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">1, </v>
+      </c>
+      <c r="I267" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="268" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G268">
+        <v>1</v>
+      </c>
+      <c r="H268" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">1, </v>
+      </c>
+      <c r="I268" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="269" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G269">
+        <v>1</v>
+      </c>
+      <c r="H269" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">1, </v>
+      </c>
+      <c r="I269" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="270" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G270">
+        <v>1</v>
+      </c>
+      <c r="H270" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">1, </v>
+      </c>
+      <c r="I270" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="271" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G271">
+        <v>1</v>
+      </c>
+      <c r="H271" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">1, </v>
+      </c>
+      <c r="I271" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="272" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G272">
+        <v>1</v>
+      </c>
+      <c r="H272" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">1, </v>
+      </c>
+      <c r="I272" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="273" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G273">
+        <v>1</v>
+      </c>
+      <c r="H273" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">1, </v>
+      </c>
+      <c r="I273" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="274" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G274">
+        <v>1</v>
+      </c>
+      <c r="H274" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">1, </v>
+      </c>
+      <c r="I274" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="275" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G275">
+        <v>1</v>
+      </c>
+      <c r="H275" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">1, </v>
+      </c>
+      <c r="I275" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="276" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G276">
+        <v>2</v>
+      </c>
+      <c r="H276" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">2, </v>
+      </c>
+      <c r="I276" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="277" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G277">
+        <v>2</v>
+      </c>
+      <c r="H277" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">2, </v>
+      </c>
+      <c r="I277" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="278" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G278">
+        <v>2</v>
+      </c>
+      <c r="H278" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">2, </v>
+      </c>
+      <c r="I278" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="279" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G279">
+        <v>2</v>
+      </c>
+      <c r="H279" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">2, </v>
+      </c>
+      <c r="I279" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="280" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G280">
+        <v>2</v>
+      </c>
+      <c r="H280" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">2, </v>
+      </c>
+      <c r="I280" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="281" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G281">
+        <v>2</v>
+      </c>
+      <c r="H281" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">2, </v>
+      </c>
+      <c r="I281" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="282" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G282">
+        <v>2</v>
+      </c>
+      <c r="H282" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">2, </v>
+      </c>
+      <c r="I282" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="283" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G283">
+        <v>2</v>
+      </c>
+      <c r="H283" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">2, </v>
+      </c>
+      <c r="I283" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="284" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G284">
+        <v>2</v>
+      </c>
+      <c r="H284" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">2, </v>
+      </c>
+      <c r="I284" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="285" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G285">
+        <v>3</v>
+      </c>
+      <c r="H285" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">3, </v>
+      </c>
+      <c r="I285" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="286" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G286">
+        <v>3</v>
+      </c>
+      <c r="H286" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">3, </v>
+      </c>
+      <c r="I286" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="287" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G287">
+        <v>3</v>
+      </c>
+      <c r="H287" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">3, </v>
+      </c>
+      <c r="I287" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="288" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G288">
+        <v>3</v>
+      </c>
+      <c r="H288" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">3, </v>
+      </c>
+      <c r="I288" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="289" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G289">
+        <v>3</v>
+      </c>
+      <c r="H289" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">3, </v>
+      </c>
+      <c r="I289" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="290" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G290">
+        <v>3</v>
+      </c>
+      <c r="H290" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">3, </v>
+      </c>
+      <c r="I290" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="291" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G291">
+        <v>3</v>
+      </c>
+      <c r="H291" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">3, </v>
+      </c>
+      <c r="I291" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="292" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G292">
+        <v>3</v>
+      </c>
+      <c r="H292" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">3, </v>
+      </c>
+      <c r="I292" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="293" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G293">
+        <v>4</v>
+      </c>
+      <c r="H293" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">4, </v>
+      </c>
+      <c r="I293" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="294" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G294">
+        <v>4</v>
+      </c>
+      <c r="H294" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">4, </v>
+      </c>
+      <c r="I294" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="295" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G295">
+        <v>4</v>
+      </c>
+      <c r="H295" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">4, </v>
+      </c>
+      <c r="I295" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="296" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G296">
+        <v>4</v>
+      </c>
+      <c r="H296" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">4, </v>
+      </c>
+      <c r="I296" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="297" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G297">
+        <v>4</v>
+      </c>
+      <c r="H297" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">4, </v>
+      </c>
+      <c r="I297" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="298" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G298">
+        <v>4</v>
+      </c>
+      <c r="H298" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">4, </v>
+      </c>
+      <c r="I298" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="299" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G299">
+        <v>5</v>
+      </c>
+      <c r="H299" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">5, </v>
+      </c>
+      <c r="I299" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="300" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G300">
+        <v>5</v>
+      </c>
+      <c r="H300" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">5, </v>
+      </c>
+    </row>
+    <row r="301" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G301">
+        <v>5</v>
+      </c>
+      <c r="H301" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">5, </v>
+      </c>
+    </row>
+    <row r="302" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G302">
+        <v>5</v>
+      </c>
+      <c r="H302" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">5, </v>
+      </c>
+    </row>
+    <row r="303" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G303">
+        <v>5</v>
+      </c>
+      <c r="H303" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">5, </v>
+      </c>
+    </row>
+    <row r="304" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G304">
+        <v>6</v>
+      </c>
+      <c r="H304" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">6, </v>
+      </c>
+    </row>
+    <row r="305" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G305">
+        <v>6</v>
+      </c>
+      <c r="H305" t="str">
+        <f t="shared" ref="H305:H368" si="5">G305&amp;", "</f>
+        <v xml:space="preserve">6, </v>
+      </c>
+    </row>
+    <row r="306" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G306">
+        <v>6</v>
+      </c>
+      <c r="H306" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">6, </v>
+      </c>
+    </row>
+    <row r="307" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G307">
+        <v>6</v>
+      </c>
+      <c r="H307" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">6, </v>
+      </c>
+    </row>
+    <row r="308" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G308">
+        <v>6</v>
+      </c>
+      <c r="H308" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">6, </v>
+      </c>
+    </row>
+    <row r="309" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G309">
+        <v>7</v>
+      </c>
+      <c r="H309" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">7, </v>
+      </c>
+    </row>
+    <row r="310" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G310">
+        <v>7</v>
+      </c>
+      <c r="H310" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">7, </v>
+      </c>
+    </row>
+    <row r="311" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G311">
+        <v>7</v>
+      </c>
+      <c r="H311" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">7, </v>
+      </c>
+    </row>
+    <row r="312" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G312">
+        <v>7</v>
+      </c>
+      <c r="H312" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">7, </v>
+      </c>
+    </row>
+    <row r="313" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G313">
+        <v>8</v>
+      </c>
+      <c r="H313" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">8, </v>
+      </c>
+    </row>
+    <row r="314" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G314">
+        <v>8</v>
+      </c>
+      <c r="H314" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">8, </v>
+      </c>
+    </row>
+    <row r="315" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G315">
+        <v>8</v>
+      </c>
+      <c r="H315" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">8, </v>
+      </c>
+    </row>
+    <row r="316" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G316">
+        <v>8</v>
+      </c>
+      <c r="H316" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">8, </v>
+      </c>
+    </row>
+    <row r="317" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G317">
+        <v>9</v>
+      </c>
+      <c r="H317" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">9, </v>
+      </c>
+    </row>
+    <row r="318" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G318">
+        <v>9</v>
+      </c>
+      <c r="H318" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">9, </v>
+      </c>
+    </row>
+    <row r="319" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G319">
+        <v>9</v>
+      </c>
+      <c r="H319" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">9, </v>
+      </c>
+    </row>
+    <row r="320" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G320">
+        <v>9</v>
+      </c>
+      <c r="H320" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">9, </v>
+      </c>
+    </row>
+    <row r="321" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G321">
+        <v>10</v>
+      </c>
+      <c r="H321" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">10, </v>
+      </c>
+    </row>
+    <row r="322" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G322">
+        <v>10</v>
+      </c>
+      <c r="H322" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">10, </v>
+      </c>
+    </row>
+    <row r="323" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G323">
+        <v>10</v>
+      </c>
+      <c r="H323" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">10, </v>
+      </c>
+    </row>
+    <row r="324" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G324">
+        <v>11</v>
+      </c>
+      <c r="H324" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">11, </v>
+      </c>
+    </row>
+    <row r="325" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G325">
+        <v>11</v>
+      </c>
+      <c r="H325" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">11, </v>
+      </c>
+    </row>
+    <row r="326" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G326">
+        <v>11</v>
+      </c>
+      <c r="H326" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">11, </v>
+      </c>
+    </row>
+    <row r="327" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G327">
+        <v>12</v>
+      </c>
+      <c r="H327" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">12, </v>
+      </c>
+    </row>
+    <row r="328" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G328">
+        <v>12</v>
+      </c>
+      <c r="H328" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">12, </v>
+      </c>
+    </row>
+    <row r="329" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G329">
+        <v>12</v>
+      </c>
+      <c r="H329" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">12, </v>
+      </c>
+    </row>
+    <row r="330" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G330">
+        <v>13</v>
+      </c>
+      <c r="H330" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">13, </v>
+      </c>
+    </row>
+    <row r="331" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G331">
+        <v>13</v>
+      </c>
+      <c r="H331" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">13, </v>
+      </c>
+    </row>
+    <row r="332" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G332">
+        <v>13</v>
+      </c>
+      <c r="H332" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">13, </v>
+      </c>
+    </row>
+    <row r="333" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G333">
+        <v>14</v>
+      </c>
+      <c r="H333" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">14, </v>
+      </c>
+    </row>
+    <row r="334" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G334">
+        <v>14</v>
+      </c>
+      <c r="H334" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">14, </v>
+      </c>
+    </row>
+    <row r="335" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G335">
+        <v>14</v>
+      </c>
+      <c r="H335" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">14, </v>
+      </c>
+    </row>
+    <row r="336" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G336">
+        <v>15</v>
+      </c>
+      <c r="H336" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">15, </v>
+      </c>
+    </row>
+    <row r="337" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G337">
+        <v>15</v>
+      </c>
+      <c r="H337" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">15, </v>
+      </c>
+    </row>
+    <row r="338" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G338">
+        <v>15</v>
+      </c>
+      <c r="H338" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">15, </v>
+      </c>
+    </row>
+    <row r="339" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G339">
+        <v>16</v>
+      </c>
+      <c r="H339" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">16, </v>
+      </c>
+    </row>
+    <row r="340" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G340">
+        <v>16</v>
+      </c>
+      <c r="H340" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">16, </v>
+      </c>
+    </row>
+    <row r="341" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G341">
+        <v>17</v>
+      </c>
+      <c r="H341" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">17, </v>
+      </c>
+    </row>
+    <row r="342" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G342">
+        <v>17</v>
+      </c>
+      <c r="H342" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">17, </v>
+      </c>
+    </row>
+    <row r="343" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G343">
+        <v>18</v>
+      </c>
+      <c r="H343" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">18, </v>
+      </c>
+    </row>
+    <row r="344" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G344">
+        <v>18</v>
+      </c>
+      <c r="H344" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">18, </v>
+      </c>
+    </row>
+    <row r="345" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G345">
+        <v>18</v>
+      </c>
+      <c r="H345" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">18, </v>
+      </c>
+    </row>
+    <row r="346" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G346">
+        <v>19</v>
+      </c>
+      <c r="H346" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">19, </v>
+      </c>
+    </row>
+    <row r="347" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G347">
+        <v>19</v>
+      </c>
+      <c r="H347" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">19, </v>
+      </c>
+    </row>
+    <row r="348" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G348">
+        <v>20</v>
+      </c>
+      <c r="H348" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">20, </v>
+      </c>
+    </row>
+    <row r="349" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G349">
+        <v>20</v>
+      </c>
+      <c r="H349" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">20, </v>
+      </c>
+    </row>
+    <row r="350" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G350">
+        <v>21</v>
+      </c>
+      <c r="H350" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">21, </v>
+      </c>
+    </row>
+    <row r="351" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G351">
+        <v>21</v>
+      </c>
+      <c r="H351" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">21, </v>
+      </c>
+    </row>
+    <row r="352" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G352">
+        <v>22</v>
+      </c>
+      <c r="H352" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">22, </v>
+      </c>
+    </row>
+    <row r="353" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G353">
+        <v>22</v>
+      </c>
+      <c r="H353" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">22, </v>
+      </c>
+    </row>
+    <row r="354" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G354">
+        <v>23</v>
+      </c>
+      <c r="H354" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">23, </v>
+      </c>
+    </row>
+    <row r="355" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G355">
+        <v>23</v>
+      </c>
+      <c r="H355" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">23, </v>
+      </c>
+    </row>
+    <row r="356" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G356">
+        <v>24</v>
+      </c>
+      <c r="H356" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">24, </v>
+      </c>
+    </row>
+    <row r="357" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G357">
+        <v>24</v>
+      </c>
+      <c r="H357" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">24, </v>
+      </c>
+    </row>
+    <row r="358" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G358">
+        <v>25</v>
+      </c>
+      <c r="H358" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">25, </v>
+      </c>
+    </row>
+    <row r="359" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G359">
+        <v>26</v>
+      </c>
+      <c r="H359" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">26, </v>
+      </c>
+    </row>
+    <row r="360" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G360">
+        <v>26</v>
+      </c>
+      <c r="H360" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">26, </v>
+      </c>
+    </row>
+    <row r="361" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G361">
+        <v>27</v>
+      </c>
+      <c r="H361" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">27, </v>
+      </c>
+    </row>
+    <row r="362" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G362">
+        <v>27</v>
+      </c>
+      <c r="H362" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">27, </v>
+      </c>
+    </row>
+    <row r="363" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G363">
+        <v>28</v>
+      </c>
+      <c r="H363" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">28, </v>
+      </c>
+    </row>
+    <row r="364" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G364">
+        <v>28</v>
+      </c>
+      <c r="H364" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">28, </v>
+      </c>
+    </row>
+    <row r="365" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G365">
+        <v>29</v>
+      </c>
+      <c r="H365" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">29, </v>
+      </c>
+    </row>
+    <row r="366" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G366">
+        <v>30</v>
+      </c>
+      <c r="H366" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">30, </v>
+      </c>
+    </row>
+    <row r="367" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G367">
+        <v>30</v>
+      </c>
+      <c r="H367" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">30, </v>
+      </c>
+    </row>
+    <row r="368" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G368">
+        <v>31</v>
+      </c>
+      <c r="H368" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">31, </v>
+      </c>
+    </row>
+    <row r="369" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G369">
+        <v>32</v>
+      </c>
+      <c r="H369" t="str">
+        <f t="shared" ref="H369:H432" si="6">G369&amp;", "</f>
+        <v xml:space="preserve">32, </v>
+      </c>
+    </row>
+    <row r="370" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G370">
+        <v>32</v>
+      </c>
+      <c r="H370" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">32, </v>
+      </c>
+    </row>
+    <row r="371" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G371">
+        <v>33</v>
+      </c>
+      <c r="H371" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">33, </v>
+      </c>
+    </row>
+    <row r="372" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G372">
+        <v>34</v>
+      </c>
+      <c r="H372" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">34, </v>
+      </c>
+    </row>
+    <row r="373" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G373">
+        <v>34</v>
+      </c>
+      <c r="H373" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">34, </v>
+      </c>
+    </row>
+    <row r="374" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G374">
+        <v>35</v>
+      </c>
+      <c r="H374" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">35, </v>
+      </c>
+    </row>
+    <row r="375" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G375">
+        <v>36</v>
+      </c>
+      <c r="H375" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">36, </v>
+      </c>
+    </row>
+    <row r="376" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G376">
+        <v>36</v>
+      </c>
+      <c r="H376" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">36, </v>
+      </c>
+    </row>
+    <row r="377" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G377">
+        <v>37</v>
+      </c>
+      <c r="H377" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">37, </v>
+      </c>
+    </row>
+    <row r="378" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G378">
+        <v>38</v>
+      </c>
+      <c r="H378" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">38, </v>
+      </c>
+    </row>
+    <row r="379" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G379">
+        <v>39</v>
+      </c>
+      <c r="H379" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">39, </v>
+      </c>
+    </row>
+    <row r="380" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G380">
+        <v>40</v>
+      </c>
+      <c r="H380" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">40, </v>
+      </c>
+    </row>
+    <row r="381" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G381">
+        <v>40</v>
+      </c>
+      <c r="H381" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">40, </v>
+      </c>
+    </row>
+    <row r="382" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G382">
+        <v>41</v>
+      </c>
+      <c r="H382" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">41, </v>
+      </c>
+    </row>
+    <row r="383" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G383">
+        <v>42</v>
+      </c>
+      <c r="H383" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">42, </v>
+      </c>
+    </row>
+    <row r="384" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G384">
+        <v>43</v>
+      </c>
+      <c r="H384" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">43, </v>
+      </c>
+    </row>
+    <row r="385" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G385">
+        <v>44</v>
+      </c>
+      <c r="H385" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">44, </v>
+      </c>
+    </row>
+    <row r="386" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G386">
+        <v>44</v>
+      </c>
+      <c r="H386" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">44, </v>
+      </c>
+    </row>
+    <row r="387" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G387">
+        <v>45</v>
+      </c>
+      <c r="H387" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">45, </v>
+      </c>
+    </row>
+    <row r="388" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G388">
+        <v>46</v>
+      </c>
+      <c r="H388" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">46, </v>
+      </c>
+    </row>
+    <row r="389" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G389">
+        <v>47</v>
+      </c>
+      <c r="H389" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">47, </v>
+      </c>
+    </row>
+    <row r="390" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G390">
+        <v>48</v>
+      </c>
+      <c r="H390" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">48, </v>
+      </c>
+    </row>
+    <row r="391" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G391">
+        <v>49</v>
+      </c>
+      <c r="H391" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">49, </v>
+      </c>
+    </row>
+    <row r="392" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G392">
+        <v>50</v>
+      </c>
+      <c r="H392" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">50, </v>
+      </c>
+    </row>
+    <row r="393" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G393">
+        <v>51</v>
+      </c>
+      <c r="H393" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">51, </v>
+      </c>
+    </row>
+    <row r="394" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G394">
+        <v>52</v>
+      </c>
+      <c r="H394" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">52, </v>
+      </c>
+    </row>
+    <row r="395" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G395">
+        <v>53</v>
+      </c>
+      <c r="H395" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">53, </v>
+      </c>
+    </row>
+    <row r="396" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G396">
+        <v>54</v>
+      </c>
+      <c r="H396" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">54, </v>
+      </c>
+    </row>
+    <row r="397" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G397">
+        <v>55</v>
+      </c>
+      <c r="H397" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">55, </v>
+      </c>
+    </row>
+    <row r="398" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G398">
+        <v>56</v>
+      </c>
+      <c r="H398" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">56, </v>
+      </c>
+    </row>
+    <row r="399" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G399">
+        <v>57</v>
+      </c>
+      <c r="H399" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">57, </v>
+      </c>
+    </row>
+    <row r="400" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G400">
+        <v>58</v>
+      </c>
+      <c r="H400" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">58, </v>
+      </c>
+    </row>
+    <row r="401" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G401">
+        <v>59</v>
+      </c>
+      <c r="H401" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">59, </v>
+      </c>
+    </row>
+    <row r="402" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G402">
+        <v>60</v>
+      </c>
+      <c r="H402" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">60, </v>
+      </c>
+    </row>
+    <row r="403" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G403">
+        <v>61</v>
+      </c>
+      <c r="H403" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">61, </v>
+      </c>
+    </row>
+    <row r="404" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G404">
+        <v>62</v>
+      </c>
+      <c r="H404" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">62, </v>
+      </c>
+    </row>
+    <row r="405" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G405">
+        <v>63</v>
+      </c>
+      <c r="H405" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">63, </v>
+      </c>
+    </row>
+    <row r="406" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G406">
+        <v>64</v>
+      </c>
+      <c r="H406" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">64, </v>
+      </c>
+    </row>
+    <row r="407" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G407">
+        <v>65</v>
+      </c>
+      <c r="H407" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">65, </v>
+      </c>
+    </row>
+    <row r="408" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G408">
+        <v>66</v>
+      </c>
+      <c r="H408" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">66, </v>
+      </c>
+    </row>
+    <row r="409" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G409">
+        <v>68</v>
+      </c>
+      <c r="H409" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">68, </v>
+      </c>
+    </row>
+    <row r="410" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G410">
+        <v>69</v>
+      </c>
+      <c r="H410" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">69, </v>
+      </c>
+    </row>
+    <row r="411" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G411">
+        <v>70</v>
+      </c>
+      <c r="H411" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">70, </v>
+      </c>
+    </row>
+    <row r="412" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G412">
+        <v>71</v>
+      </c>
+      <c r="H412" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">71, </v>
+      </c>
+    </row>
+    <row r="413" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G413">
+        <v>72</v>
+      </c>
+      <c r="H413" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">72, </v>
+      </c>
+    </row>
+    <row r="414" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G414">
+        <v>74</v>
+      </c>
+      <c r="H414" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">74, </v>
+      </c>
+    </row>
+    <row r="415" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G415">
+        <v>75</v>
+      </c>
+      <c r="H415" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">75, </v>
+      </c>
+    </row>
+    <row r="416" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G416">
+        <v>76</v>
+      </c>
+      <c r="H416" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">76, </v>
+      </c>
+    </row>
+    <row r="417" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G417">
+        <v>78</v>
+      </c>
+      <c r="H417" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">78, </v>
+      </c>
+    </row>
+    <row r="418" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G418">
+        <v>79</v>
+      </c>
+      <c r="H418" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">79, </v>
+      </c>
+    </row>
+    <row r="419" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G419">
+        <v>80</v>
+      </c>
+      <c r="H419" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">80, </v>
+      </c>
+    </row>
+    <row r="420" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G420">
+        <v>82</v>
+      </c>
+      <c r="H420" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">82, </v>
+      </c>
+    </row>
+    <row r="421" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G421">
+        <v>83</v>
+      </c>
+      <c r="H421" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">83, </v>
+      </c>
+    </row>
+    <row r="422" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G422">
+        <v>84</v>
+      </c>
+      <c r="H422" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">84, </v>
+      </c>
+    </row>
+    <row r="423" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G423">
+        <v>86</v>
+      </c>
+      <c r="H423" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">86, </v>
+      </c>
+    </row>
+    <row r="424" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G424">
+        <v>87</v>
+      </c>
+      <c r="H424" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">87, </v>
+      </c>
+    </row>
+    <row r="425" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G425">
+        <v>89</v>
+      </c>
+      <c r="H425" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">89, </v>
+      </c>
+    </row>
+    <row r="426" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G426">
+        <v>90</v>
+      </c>
+      <c r="H426" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">90, </v>
+      </c>
+    </row>
+    <row r="427" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G427">
+        <v>92</v>
+      </c>
+      <c r="H427" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">92, </v>
+      </c>
+    </row>
+    <row r="428" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G428">
+        <v>93</v>
+      </c>
+      <c r="H428" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">93, </v>
+      </c>
+    </row>
+    <row r="429" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G429">
+        <v>95</v>
+      </c>
+      <c r="H429" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">95, </v>
+      </c>
+    </row>
+    <row r="430" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G430">
+        <v>96</v>
+      </c>
+      <c r="H430" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">96, </v>
+      </c>
+    </row>
+    <row r="431" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G431">
+        <v>98</v>
+      </c>
+      <c r="H431" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">98, </v>
+      </c>
+    </row>
+    <row r="432" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G432">
+        <v>99</v>
+      </c>
+      <c r="H432" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">99, </v>
+      </c>
+    </row>
+    <row r="433" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G433">
+        <v>101</v>
+      </c>
+      <c r="H433" t="str">
+        <f t="shared" ref="H433:H494" si="7">G433&amp;", "</f>
+        <v xml:space="preserve">101, </v>
+      </c>
+    </row>
+    <row r="434" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G434">
+        <v>103</v>
+      </c>
+      <c r="H434" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">103, </v>
+      </c>
+    </row>
+    <row r="435" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G435">
+        <v>104</v>
+      </c>
+      <c r="H435" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">104, </v>
+      </c>
+    </row>
+    <row r="436" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G436">
+        <v>106</v>
+      </c>
+      <c r="H436" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">106, </v>
+      </c>
+    </row>
+    <row r="437" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G437">
+        <v>108</v>
+      </c>
+      <c r="H437" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">108, </v>
+      </c>
+    </row>
+    <row r="438" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G438">
+        <v>109</v>
+      </c>
+      <c r="H438" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">109, </v>
+      </c>
+    </row>
+    <row r="439" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G439">
+        <v>111</v>
+      </c>
+      <c r="H439" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">111, </v>
+      </c>
+    </row>
+    <row r="440" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G440">
+        <v>113</v>
+      </c>
+      <c r="H440" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">113, </v>
+      </c>
+    </row>
+    <row r="441" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G441">
+        <v>115</v>
+      </c>
+      <c r="H441" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">115, </v>
+      </c>
+    </row>
+    <row r="442" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G442">
+        <v>117</v>
+      </c>
+      <c r="H442" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">117, </v>
+      </c>
+    </row>
+    <row r="443" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G443">
+        <v>118</v>
+      </c>
+      <c r="H443" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">118, </v>
+      </c>
+    </row>
+    <row r="444" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G444">
+        <v>120</v>
+      </c>
+      <c r="H444" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">120, </v>
+      </c>
+    </row>
+    <row r="445" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G445">
+        <v>122</v>
+      </c>
+      <c r="H445" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">122, </v>
+      </c>
+    </row>
+    <row r="446" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G446">
+        <v>124</v>
+      </c>
+      <c r="H446" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">124, </v>
+      </c>
+    </row>
+    <row r="447" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G447">
+        <v>126</v>
+      </c>
+      <c r="H447" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">126, </v>
+      </c>
+    </row>
+    <row r="448" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G448">
+        <v>128</v>
+      </c>
+      <c r="H448" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">128, </v>
+      </c>
+    </row>
+    <row r="449" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G449">
+        <v>130</v>
+      </c>
+      <c r="H449" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">130, </v>
+      </c>
+    </row>
+    <row r="450" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G450">
+        <v>132</v>
+      </c>
+      <c r="H450" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">132, </v>
+      </c>
+    </row>
+    <row r="451" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G451">
+        <v>134</v>
+      </c>
+      <c r="H451" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">134, </v>
+      </c>
+    </row>
+    <row r="452" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G452">
+        <v>136</v>
+      </c>
+      <c r="H452" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">136, </v>
+      </c>
+    </row>
+    <row r="453" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G453">
+        <v>138</v>
+      </c>
+      <c r="H453" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">138, </v>
+      </c>
+    </row>
+    <row r="454" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G454">
+        <v>140</v>
+      </c>
+      <c r="H454" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">140, </v>
+      </c>
+    </row>
+    <row r="455" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G455">
+        <v>143</v>
+      </c>
+      <c r="H455" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">143, </v>
+      </c>
+    </row>
+    <row r="456" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G456">
+        <v>145</v>
+      </c>
+      <c r="H456" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">145, </v>
+      </c>
+    </row>
+    <row r="457" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G457">
+        <v>147</v>
+      </c>
+      <c r="H457" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">147, </v>
+      </c>
+    </row>
+    <row r="458" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G458">
+        <v>149</v>
+      </c>
+      <c r="H458" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">149, </v>
+      </c>
+    </row>
+    <row r="459" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G459">
+        <v>151</v>
+      </c>
+      <c r="H459" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">151, </v>
+      </c>
+    </row>
+    <row r="460" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G460">
+        <v>154</v>
+      </c>
+      <c r="H460" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">154, </v>
+      </c>
+    </row>
+    <row r="461" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G461">
+        <v>156</v>
+      </c>
+      <c r="H461" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">156, </v>
+      </c>
+    </row>
+    <row r="462" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G462">
+        <v>158</v>
+      </c>
+      <c r="H462" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">158, </v>
+      </c>
+    </row>
+    <row r="463" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G463">
+        <v>161</v>
+      </c>
+      <c r="H463" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">161, </v>
+      </c>
+    </row>
+    <row r="464" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G464">
+        <v>163</v>
+      </c>
+      <c r="H464" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">163, </v>
+      </c>
+    </row>
+    <row r="465" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G465">
+        <v>166</v>
+      </c>
+      <c r="H465" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">166, </v>
+      </c>
+    </row>
+    <row r="466" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G466">
+        <v>168</v>
+      </c>
+      <c r="H466" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">168, </v>
+      </c>
+    </row>
+    <row r="467" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G467">
+        <v>171</v>
+      </c>
+      <c r="H467" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">171, </v>
+      </c>
+    </row>
+    <row r="468" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G468">
+        <v>173</v>
+      </c>
+      <c r="H468" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">173, </v>
+      </c>
+    </row>
+    <row r="469" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G469">
+        <v>176</v>
+      </c>
+      <c r="H469" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">176, </v>
+      </c>
+    </row>
+    <row r="470" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G470">
+        <v>178</v>
+      </c>
+      <c r="H470" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">178, </v>
+      </c>
+    </row>
+    <row r="471" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G471">
+        <v>181</v>
+      </c>
+      <c r="H471" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">181, </v>
+      </c>
+    </row>
+    <row r="472" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G472">
+        <v>184</v>
+      </c>
+      <c r="H472" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">184, </v>
+      </c>
+    </row>
+    <row r="473" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G473">
+        <v>186</v>
+      </c>
+      <c r="H473" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">186, </v>
+      </c>
+    </row>
+    <row r="474" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G474">
+        <v>189</v>
+      </c>
+      <c r="H474" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">189, </v>
+      </c>
+    </row>
+    <row r="475" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G475">
+        <v>192</v>
+      </c>
+      <c r="H475" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">192, </v>
+      </c>
+    </row>
+    <row r="476" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G476">
+        <v>195</v>
+      </c>
+      <c r="H476" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">195, </v>
+      </c>
+    </row>
+    <row r="477" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G477">
+        <v>197</v>
+      </c>
+      <c r="H477" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">197, </v>
+      </c>
+    </row>
+    <row r="478" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G478">
+        <v>200</v>
+      </c>
+      <c r="H478" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">200, </v>
+      </c>
+    </row>
+    <row r="479" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G479">
+        <v>203</v>
+      </c>
+      <c r="H479" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">203, </v>
+      </c>
+    </row>
+    <row r="480" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G480">
+        <v>206</v>
+      </c>
+      <c r="H480" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">206, </v>
+      </c>
+    </row>
+    <row r="481" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G481">
+        <v>209</v>
+      </c>
+      <c r="H481" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">209, </v>
+      </c>
+    </row>
+    <row r="482" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G482">
+        <v>212</v>
+      </c>
+      <c r="H482" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">212, </v>
+      </c>
+    </row>
+    <row r="483" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G483">
+        <v>215</v>
+      </c>
+      <c r="H483" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">215, </v>
+      </c>
+    </row>
+    <row r="484" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G484">
+        <v>218</v>
+      </c>
+      <c r="H484" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">218, </v>
+      </c>
+    </row>
+    <row r="485" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G485">
+        <v>221</v>
+      </c>
+      <c r="H485" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">221, </v>
+      </c>
+    </row>
+    <row r="486" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G486">
+        <v>225</v>
+      </c>
+      <c r="H486" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">225, </v>
+      </c>
+    </row>
+    <row r="487" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G487">
+        <v>228</v>
+      </c>
+      <c r="H487" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">228, </v>
+      </c>
+    </row>
+    <row r="488" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G488">
+        <v>231</v>
+      </c>
+      <c r="H488" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">231, </v>
+      </c>
+    </row>
+    <row r="489" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G489">
+        <v>234</v>
+      </c>
+      <c r="H489" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">234, </v>
+      </c>
+    </row>
+    <row r="490" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G490">
+        <v>238</v>
+      </c>
+      <c r="H490" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">238, </v>
+      </c>
+    </row>
+    <row r="491" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G491">
+        <v>241</v>
+      </c>
+      <c r="H491" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">241, </v>
+      </c>
+    </row>
+    <row r="492" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G492">
+        <v>245</v>
+      </c>
+      <c r="H492" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">245, </v>
+      </c>
+    </row>
+    <row r="493" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G493">
+        <v>248</v>
+      </c>
+      <c r="H493" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">248, </v>
+      </c>
+    </row>
+    <row r="494" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G494">
+        <v>251</v>
+      </c>
+      <c r="H494" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">251, </v>
       </c>
     </row>
   </sheetData>
